--- a/data/Sites.xlsx
+++ b/data/Sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midori\Documents\github\humans-andes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AEBF9-FBC5-4D6C-AF9D-64D2DEB80910}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC157AD6-240E-477A-BB21-7A88EA91BAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -581,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H5:H39" si="0">F9+1</f>
+        <f t="shared" ref="H9:H35" si="0">F9+1</f>
         <v>4</v>
       </c>
     </row>
@@ -1498,7 +1500,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.25405</v>
+        <v>-0.25405</v>
       </c>
       <c r="C35">
         <v>-78.010750000000002</v>
